--- a/5204_energie_test.xlsx
+++ b/5204_energie_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAA2757\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A92CF9-3056-4A30-81D4-9D06B36C7A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F27E635-0DC7-4273-9328-FB795CA8F4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="775" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="775" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kostenübersicht" sheetId="51" state="hidden" r:id="rId1"/>
@@ -35,14 +35,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Reto Dettli - Persönliche Ansicht" guid="{EFCCBDBE-703D-49A8-BFD5-C70DFC4C6246}" mergeInterval="0" personalView="1" maximized="1" xWindow="182" yWindow="-1449" windowWidth="2578" windowHeight="1398" activeSheetId="1"/>
+    <customWorkbookView name="w10 Test - Persönliche Ansicht" guid="{F0C3F358-38F8-4A2B-A44F-0486E20EA4EB}" mergeInterval="0" personalView="1" xWindow="153" yWindow="43" windowWidth="1713" windowHeight="1088" activeSheetId="1"/>
+    <customWorkbookView name="Daniel Moos - Persönliche Ansicht" guid="{9D53A792-EE49-4CB1-A328-80A3B1745755}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1216" activeSheetId="1" showComments="commNone"/>
+    <customWorkbookView name="Ernst Haas - Persönliche Ansicht" guid="{E9B280C6-F6C1-4D6E-A20C-7C4266B3269C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="923" activeSheetId="1"/>
+    <customWorkbookView name="Urs Müller - Persönliche Ansicht" guid="{684E191D-B776-4614-A9A6-09F48EE40BD1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="978" activeSheetId="1"/>
+    <customWorkbookView name="Dmoos - Persönliche Ansicht" guid="{D178FE1B-3B10-414B-86B8-943130264B26}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
+    <customWorkbookView name="Andrea Binkert - Persönliche Ansicht" guid="{2A6B7D3A-520D-4798-8230-1DC17916761C}" mergeInterval="0" personalView="1" xWindow="492" windowWidth="948" windowHeight="860" activeSheetId="1"/>
     <customWorkbookView name="Basil Odermatt - Persönliche Ansicht" guid="{59C26AB4-86C6-4447-8F9F-F1FCBFE3A683}" mergeInterval="0" personalView="1" maximized="1" xWindow="2552" yWindow="-6" windowWidth="2576" windowHeight="1426" activeSheetId="1"/>
-    <customWorkbookView name="Andrea Binkert - Persönliche Ansicht" guid="{2A6B7D3A-520D-4798-8230-1DC17916761C}" mergeInterval="0" personalView="1" xWindow="492" windowWidth="948" windowHeight="860" activeSheetId="1"/>
-    <customWorkbookView name="Dmoos - Persönliche Ansicht" guid="{D178FE1B-3B10-414B-86B8-943130264B26}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Urs Müller - Persönliche Ansicht" guid="{684E191D-B776-4614-A9A6-09F48EE40BD1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="978" activeSheetId="1"/>
-    <customWorkbookView name="Ernst Haas - Persönliche Ansicht" guid="{E9B280C6-F6C1-4D6E-A20C-7C4266B3269C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="923" activeSheetId="1"/>
-    <customWorkbookView name="Daniel Moos - Persönliche Ansicht" guid="{9D53A792-EE49-4CB1-A328-80A3B1745755}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1216" activeSheetId="1" showComments="commNone"/>
-    <customWorkbookView name="w10 Test - Persönliche Ansicht" guid="{F0C3F358-38F8-4A2B-A44F-0486E20EA4EB}" mergeInterval="0" personalView="1" xWindow="153" yWindow="43" windowWidth="1713" windowHeight="1088" activeSheetId="1"/>
-    <customWorkbookView name="Reto Dettli - Persönliche Ansicht" guid="{EFCCBDBE-703D-49A8-BFD5-C70DFC4C6246}" mergeInterval="0" personalView="1" maximized="1" xWindow="182" yWindow="-1449" windowWidth="2578" windowHeight="1398" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -452,9 +452,6 @@
     <t>Erdgas</t>
   </si>
   <si>
-    <t>data/input/</t>
-  </si>
-  <si>
     <t>gas_inp_gem.csv</t>
   </si>
   <si>
@@ -468,6 +465,9 @@
   </si>
   <si>
     <t>Einwohner (zivil)</t>
+  </si>
+  <si>
+    <t>https://github.com/awelZH/energy/blob/main/data/input/</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
     <numFmt numFmtId="168" formatCode="#,##0&quot; CHF&quot;"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -763,11 +763,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="45">
@@ -1252,7 +1247,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1344,7 +1339,6 @@
     <xf numFmtId="0" fontId="18" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="20 % - Akzent1" xfId="42" builtinId="30" customBuiltin="1"/>
@@ -1923,7 +1917,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:11" ht="87" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="104.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4058,7 +4052,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4271,11 +4265,11 @@
       <c r="F3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>107</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>53</v>
@@ -4315,10 +4309,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>109</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>99</v>
@@ -4329,14 +4323,14 @@
       <c r="F4" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>106</v>
+      <c r="G4" s="38" t="s">
+        <v>111</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="J4" s="25" t="s">
         <v>53</v>
@@ -5201,25 +5195,17 @@
     <sortCondition ref="B2:B32"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" display="https://www.web.statistik.zh.ch/ogd/daten/ressourcen/" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{9EB1524A-25E0-4D13-831D-33E2DECCE17D}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{1D1EE52D-4FF7-43EC-B963-EA2025301725}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7c16c412-41a7-483e-8458-9b4c6e041c8c">
@@ -5228,6 +5214,15 @@
     <TaxCatchAll xmlns="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5436,14 +5431,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E4C368-1DF5-422B-BD39-8846CE2351EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A314DA-0F62-4E10-94F7-DBFCC9F3B707}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5456,6 +5443,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E4C368-1DF5-422B-BD39-8846CE2351EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/5204_energie_test.xlsx
+++ b/5204_energie_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAA2757\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\gitrepos\energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F27E635-0DC7-4273-9328-FB795CA8F4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263AA1C3-B8D8-4AB5-8E73-74DADBB31758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="775" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,14 +35,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Basil Odermatt - Persönliche Ansicht" guid="{59C26AB4-86C6-4447-8F9F-F1FCBFE3A683}" mergeInterval="0" personalView="1" maximized="1" xWindow="2552" yWindow="-6" windowWidth="2576" windowHeight="1426" activeSheetId="1"/>
+    <customWorkbookView name="Andrea Binkert - Persönliche Ansicht" guid="{2A6B7D3A-520D-4798-8230-1DC17916761C}" mergeInterval="0" personalView="1" xWindow="492" windowWidth="948" windowHeight="860" activeSheetId="1"/>
+    <customWorkbookView name="Dmoos - Persönliche Ansicht" guid="{D178FE1B-3B10-414B-86B8-943130264B26}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
+    <customWorkbookView name="Urs Müller - Persönliche Ansicht" guid="{684E191D-B776-4614-A9A6-09F48EE40BD1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="978" activeSheetId="1"/>
+    <customWorkbookView name="Ernst Haas - Persönliche Ansicht" guid="{E9B280C6-F6C1-4D6E-A20C-7C4266B3269C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="923" activeSheetId="1"/>
+    <customWorkbookView name="Daniel Moos - Persönliche Ansicht" guid="{9D53A792-EE49-4CB1-A328-80A3B1745755}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1216" activeSheetId="1" showComments="commNone"/>
+    <customWorkbookView name="w10 Test - Persönliche Ansicht" guid="{F0C3F358-38F8-4A2B-A44F-0486E20EA4EB}" mergeInterval="0" personalView="1" xWindow="153" yWindow="43" windowWidth="1713" windowHeight="1088" activeSheetId="1"/>
     <customWorkbookView name="Reto Dettli - Persönliche Ansicht" guid="{EFCCBDBE-703D-49A8-BFD5-C70DFC4C6246}" mergeInterval="0" personalView="1" maximized="1" xWindow="182" yWindow="-1449" windowWidth="2578" windowHeight="1398" activeSheetId="1"/>
-    <customWorkbookView name="w10 Test - Persönliche Ansicht" guid="{F0C3F358-38F8-4A2B-A44F-0486E20EA4EB}" mergeInterval="0" personalView="1" xWindow="153" yWindow="43" windowWidth="1713" windowHeight="1088" activeSheetId="1"/>
-    <customWorkbookView name="Daniel Moos - Persönliche Ansicht" guid="{9D53A792-EE49-4CB1-A328-80A3B1745755}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1216" activeSheetId="1" showComments="commNone"/>
-    <customWorkbookView name="Ernst Haas - Persönliche Ansicht" guid="{E9B280C6-F6C1-4D6E-A20C-7C4266B3269C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="923" activeSheetId="1"/>
-    <customWorkbookView name="Urs Müller - Persönliche Ansicht" guid="{684E191D-B776-4614-A9A6-09F48EE40BD1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="978" activeSheetId="1"/>
-    <customWorkbookView name="Dmoos - Persönliche Ansicht" guid="{D178FE1B-3B10-414B-86B8-943130264B26}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Andrea Binkert - Persönliche Ansicht" guid="{2A6B7D3A-520D-4798-8230-1DC17916761C}" mergeInterval="0" personalView="1" xWindow="492" windowWidth="948" windowHeight="860" activeSheetId="1"/>
-    <customWorkbookView name="Basil Odermatt - Persönliche Ansicht" guid="{59C26AB4-86C6-4447-8F9F-F1FCBFE3A683}" mergeInterval="0" personalView="1" maximized="1" xWindow="2552" yWindow="-6" windowWidth="2576" windowHeight="1426" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -64,6 +64,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={8D6D4BDD-30EE-4AB7-91B4-A0AFA8CAA1BF}</author>
+    <author>tc={4FC0FEAF-10AD-4966-8249-2AF05EA22DE4}</author>
     <author>tc={B959955C-40F8-4178-9D46-2B3B699FF6C4}</author>
     <author>tc={F8D71A7C-E5F7-4AB2-BA3A-263385823BB9}</author>
     <author>tc={AE0623BC-6FA4-49C9-B450-941BCEB6A906}</author>
@@ -77,7 +78,15 @@
     Titel der Grafiken</t>
       </text>
     </comment>
-    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{B959955C-40F8-4178-9D46-2B3B699FF6C4}">
+    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{4FC0FEAF-10AD-4966-8249-2AF05EA22DE4}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    px-x-0103010000_102 ersetzt durch px-x-0102020000_101</t>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="2" shapeId="0" xr:uid="{B959955C-40F8-4178-9D46-2B3B699FF6C4}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -85,7 +94,7 @@
     Ab 2025 aus OGD Datensatz MeteoSchweiz berechnet</t>
       </text>
     </comment>
-    <comment ref="K21" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="K21" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -97,7 +106,7 @@
 Es wird die Anzahl Jahre abgefragt, also 2023-1996 = 27</t>
       </text>
     </comment>
-    <comment ref="H32" authorId="3" shapeId="0" xr:uid="{AE0623BC-6FA4-49C9-B450-941BCEB6A906}">
+    <comment ref="H32" authorId="4" shapeId="0" xr:uid="{AE0623BC-6FA4-49C9-B450-941BCEB6A906}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -132,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
   <si>
     <t>#</t>
   </si>
@@ -461,13 +470,16 @@
     <t>Bevölkerungszahlen</t>
   </si>
   <si>
-    <t>bev_gem.csv</t>
-  </si>
-  <si>
     <t>Einwohner (zivil)</t>
   </si>
   <si>
-    <t>https://github.com/awelZH/energy/blob/main/data/input/</t>
+    <t>https://www.web.statistik.zh.ch/awel/decarb_monitoring/</t>
+  </si>
+  <si>
+    <t>https://www.pxweb.bfs.admin.ch/api/v1/de/</t>
+  </si>
+  <si>
+    <t>px-x-0103010000_102</t>
   </si>
 </sst>
 </file>
@@ -482,7 +494,7 @@
     <numFmt numFmtId="168" formatCode="#,##0&quot; CHF&quot;"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -763,6 +775,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="45">
@@ -1868,6 +1886,9 @@
   <threadedComment ref="D1" dT="2023-06-14T07:18:41.28" personId="{808E65DB-4307-4BA3-BC76-03CCDC34E544}" id="{8D6D4BDD-30EE-4AB7-91B4-A0AFA8CAA1BF}">
     <text>Titel der Grafiken</text>
   </threadedComment>
+  <threadedComment ref="H4" dT="2024-01-10T12:59:42.39" personId="{9E374A6E-78EE-4895-9219-03BB83C00527}" id="{4FC0FEAF-10AD-4966-8249-2AF05EA22DE4}">
+    <text>px-x-0103010000_102 ersetzt durch px-x-0102020000_101</text>
+  </threadedComment>
   <threadedComment ref="C9" dT="2025-01-16T12:30:30.52" personId="{9E374A6E-78EE-4895-9219-03BB83C00527}" id="{B959955C-40F8-4178-9D46-2B3B699FF6C4}">
     <text>Ab 2025 aus OGD Datensatz MeteoSchweiz berechnet</text>
   </threadedComment>
@@ -4049,10 +4070,10 @@
   <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4266,7 +4287,7 @@
         <v>95</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>106</v>
@@ -4323,14 +4344,14 @@
       <c r="F4" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="25" t="s">
         <v>111</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>110</v>
       </c>
       <c r="J4" s="25" t="s">
         <v>53</v>
@@ -5195,37 +5216,16 @@
     <sortCondition ref="B2:B32"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{9EB1524A-25E0-4D13-831D-33E2DECCE17D}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{1D1EE52D-4FF7-43EC-B963-EA2025301725}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{9EB1524A-25E0-4D13-831D-33E2DECCE17D}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{663B6A20-E619-4145-9F1C-B54FE54639E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7c16c412-41a7-483e-8458-9b4c6e041c8c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004D6EF8296678614C82595E073A935E63" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a2c357ece3d19c143a9e4a1e033fa04b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7c16c412-41a7-483e-8458-9b4c6e041c8c" xmlns:ns3="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78066d3103febb3f607343910020d0d2" ns2:_="" ns3:_="">
     <xsd:import namespace="7c16c412-41a7-483e-8458-9b4c6e041c8c"/>
@@ -5430,32 +5430,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A314DA-0F62-4E10-94F7-DBFCC9F3B707}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7c16c412-41a7-483e-8458-9b4c6e041c8c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E4C368-1DF5-422B-BD39-8846CE2351EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7c16c412-41a7-483e-8458-9b4c6e041c8c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02E89199-B92A-4346-AA14-A4573F72AE71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5474,6 +5469,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E4C368-1DF5-422B-BD39-8846CE2351EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A314DA-0F62-4E10-94F7-DBFCC9F3B707}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7c16c412-41a7-483e-8458-9b4c6e041c8c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ab6d1c10-a186-47ab-af91-cdbff51004f3}" enabled="1" method="Standard" siteId="{a020d0ae-094a-4d44-b66c-ac3fe8e90c58}" contentBits="0" removed="0"/>

--- a/5204_energie_test.xlsx
+++ b/5204_energie_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\gitrepos\energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263AA1C3-B8D8-4AB5-8E73-74DADBB31758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8782F4DC-506C-4366-9081-6BA36CBA0C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="775" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="720" windowWidth="21600" windowHeight="12645" tabRatio="775" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kostenübersicht" sheetId="51" state="hidden" r:id="rId1"/>
@@ -35,14 +35,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Reto Dettli - Persönliche Ansicht" guid="{EFCCBDBE-703D-49A8-BFD5-C70DFC4C6246}" mergeInterval="0" personalView="1" maximized="1" xWindow="182" yWindow="-1449" windowWidth="2578" windowHeight="1398" activeSheetId="1"/>
+    <customWorkbookView name="w10 Test - Persönliche Ansicht" guid="{F0C3F358-38F8-4A2B-A44F-0486E20EA4EB}" mergeInterval="0" personalView="1" xWindow="153" yWindow="43" windowWidth="1713" windowHeight="1088" activeSheetId="1"/>
+    <customWorkbookView name="Daniel Moos - Persönliche Ansicht" guid="{9D53A792-EE49-4CB1-A328-80A3B1745755}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1216" activeSheetId="1" showComments="commNone"/>
+    <customWorkbookView name="Ernst Haas - Persönliche Ansicht" guid="{E9B280C6-F6C1-4D6E-A20C-7C4266B3269C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="923" activeSheetId="1"/>
+    <customWorkbookView name="Urs Müller - Persönliche Ansicht" guid="{684E191D-B776-4614-A9A6-09F48EE40BD1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="978" activeSheetId="1"/>
+    <customWorkbookView name="Dmoos - Persönliche Ansicht" guid="{D178FE1B-3B10-414B-86B8-943130264B26}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
+    <customWorkbookView name="Andrea Binkert - Persönliche Ansicht" guid="{2A6B7D3A-520D-4798-8230-1DC17916761C}" mergeInterval="0" personalView="1" xWindow="492" windowWidth="948" windowHeight="860" activeSheetId="1"/>
     <customWorkbookView name="Basil Odermatt - Persönliche Ansicht" guid="{59C26AB4-86C6-4447-8F9F-F1FCBFE3A683}" mergeInterval="0" personalView="1" maximized="1" xWindow="2552" yWindow="-6" windowWidth="2576" windowHeight="1426" activeSheetId="1"/>
-    <customWorkbookView name="Andrea Binkert - Persönliche Ansicht" guid="{2A6B7D3A-520D-4798-8230-1DC17916761C}" mergeInterval="0" personalView="1" xWindow="492" windowWidth="948" windowHeight="860" activeSheetId="1"/>
-    <customWorkbookView name="Dmoos - Persönliche Ansicht" guid="{D178FE1B-3B10-414B-86B8-943130264B26}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Urs Müller - Persönliche Ansicht" guid="{684E191D-B776-4614-A9A6-09F48EE40BD1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="978" activeSheetId="1"/>
-    <customWorkbookView name="Ernst Haas - Persönliche Ansicht" guid="{E9B280C6-F6C1-4D6E-A20C-7C4266B3269C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="923" activeSheetId="1"/>
-    <customWorkbookView name="Daniel Moos - Persönliche Ansicht" guid="{9D53A792-EE49-4CB1-A328-80A3B1745755}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1216" activeSheetId="1" showComments="commNone"/>
-    <customWorkbookView name="w10 Test - Persönliche Ansicht" guid="{F0C3F358-38F8-4A2B-A44F-0486E20EA4EB}" mergeInterval="0" personalView="1" xWindow="153" yWindow="43" windowWidth="1713" windowHeight="1088" activeSheetId="1"/>
-    <customWorkbookView name="Reto Dettli - Persönliche Ansicht" guid="{EFCCBDBE-703D-49A8-BFD5-C70DFC4C6246}" mergeInterval="0" personalView="1" maximized="1" xWindow="182" yWindow="-1449" windowWidth="2578" windowHeight="1398" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -64,7 +64,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={8D6D4BDD-30EE-4AB7-91B4-A0AFA8CAA1BF}</author>
-    <author>tc={4FC0FEAF-10AD-4966-8249-2AF05EA22DE4}</author>
+    <author>tc={1E717865-1D71-4BD5-BE86-7CB538FB0C51}</author>
     <author>tc={B959955C-40F8-4178-9D46-2B3B699FF6C4}</author>
     <author>tc={F8D71A7C-E5F7-4AB2-BA3A-263385823BB9}</author>
     <author>tc={AE0623BC-6FA4-49C9-B450-941BCEB6A906}</author>
@@ -78,7 +78,7 @@
     Titel der Grafiken</t>
       </text>
     </comment>
-    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{4FC0FEAF-10AD-4966-8249-2AF05EA22DE4}">
+    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{1E717865-1D71-4BD5-BE86-7CB538FB0C51}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
   <si>
     <t>#</t>
   </si>
@@ -464,15 +464,6 @@
     <t>gas_inp_gem.csv</t>
   </si>
   <si>
-    <t>BEV</t>
-  </si>
-  <si>
-    <t>Bevölkerungszahlen</t>
-  </si>
-  <si>
-    <t>Einwohner (zivil)</t>
-  </si>
-  <si>
     <t>https://www.web.statistik.zh.ch/awel/decarb_monitoring/</t>
   </si>
   <si>
@@ -480,6 +471,36 @@
   </si>
   <si>
     <t>px-x-0103010000_102</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Einwohner:innen</t>
+  </si>
+  <si>
+    <t>Ständige Wohnbevölkerung</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>8100,ZH</t>
+  </si>
+  <si>
+    <t>Bevölkerungstyp</t>
+  </si>
+  <si>
+    <t>Ständige und nichtständige Wohnbevölkerung</t>
+  </si>
+  <si>
+    <t>Personen</t>
+  </si>
+  <si>
+    <t>Statistik der Bevölkerung und der Haushalte STATPOP (BFS)</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1907,7 @@
   <threadedComment ref="D1" dT="2023-06-14T07:18:41.28" personId="{808E65DB-4307-4BA3-BC76-03CCDC34E544}" id="{8D6D4BDD-30EE-4AB7-91B4-A0AFA8CAA1BF}">
     <text>Titel der Grafiken</text>
   </threadedComment>
-  <threadedComment ref="H4" dT="2024-01-10T12:59:42.39" personId="{9E374A6E-78EE-4895-9219-03BB83C00527}" id="{4FC0FEAF-10AD-4966-8249-2AF05EA22DE4}">
+  <threadedComment ref="H4" dT="2024-01-10T12:59:42.39" personId="{9E374A6E-78EE-4895-9219-03BB83C00527}" id="{1E717865-1D71-4BD5-BE86-7CB538FB0C51}">
     <text>px-x-0103010000_102 ersetzt durch px-x-0102020000_101</text>
   </threadedComment>
   <threadedComment ref="C9" dT="2025-01-16T12:30:30.52" personId="{9E374A6E-78EE-4895-9219-03BB83C00527}" id="{B959955C-40F8-4178-9D46-2B3B699FF6C4}">
@@ -4070,10 +4091,10 @@
   <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4287,7 +4308,7 @@
         <v>95</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>106</v>
@@ -4330,29 +4351,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>96</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="25" t="s">
         <v>109</v>
       </c>
+      <c r="I4" s="25"/>
       <c r="J4" s="25" t="s">
         <v>53</v>
       </c>
@@ -4360,30 +4379,40 @@
         <v>2010</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+        <v>97</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>112</v>
+      </c>
       <c r="R4" s="25"/>
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
       <c r="U4" s="25" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="V4" s="25" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="X4" s="25" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="Y4" s="25" t="s">
         <v>91</v>
       </c>
       <c r="AA4" s="25" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="14.25" x14ac:dyDescent="0.2">
@@ -5217,7 +5246,7 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{9EB1524A-25E0-4D13-831D-33E2DECCE17D}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{663B6A20-E619-4145-9F1C-B54FE54639E3}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{BB5C62CC-703D-4E52-B33E-591C09F06289}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5226,6 +5255,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7c16c412-41a7-483e-8458-9b4c6e041c8c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004D6EF8296678614C82595E073A935E63" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a2c357ece3d19c143a9e4a1e033fa04b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7c16c412-41a7-483e-8458-9b4c6e041c8c" xmlns:ns3="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78066d3103febb3f607343910020d0d2" ns2:_="" ns3:_="">
     <xsd:import namespace="7c16c412-41a7-483e-8458-9b4c6e041c8c"/>
@@ -5430,27 +5479,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A314DA-0F62-4E10-94F7-DBFCC9F3B707}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7c16c412-41a7-483e-8458-9b4c6e041c8c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7c16c412-41a7-483e-8458-9b4c6e041c8c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E4C368-1DF5-422B-BD39-8846CE2351EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02E89199-B92A-4346-AA14-A4573F72AE71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5469,31 +5523,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E4C368-1DF5-422B-BD39-8846CE2351EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A314DA-0F62-4E10-94F7-DBFCC9F3B707}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7c16c412-41a7-483e-8458-9b4c6e041c8c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ab6d1c10-a186-47ab-af91-cdbff51004f3}" enabled="1" method="Standard" siteId="{a020d0ae-094a-4d44-b66c-ac3fe8e90c58}" contentBits="0" removed="0"/>

--- a/5204_energie_test.xlsx
+++ b/5204_energie_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\gitrepos\energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8782F4DC-506C-4366-9081-6BA36CBA0C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E98E633-4567-4C0F-9E77-2DD9CD7215B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="720" windowWidth="21600" windowHeight="12645" tabRatio="775" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="775" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kostenübersicht" sheetId="51" state="hidden" r:id="rId1"/>
@@ -35,14 +35,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Basil Odermatt - Persönliche Ansicht" guid="{59C26AB4-86C6-4447-8F9F-F1FCBFE3A683}" mergeInterval="0" personalView="1" maximized="1" xWindow="2552" yWindow="-6" windowWidth="2576" windowHeight="1426" activeSheetId="1"/>
+    <customWorkbookView name="Andrea Binkert - Persönliche Ansicht" guid="{2A6B7D3A-520D-4798-8230-1DC17916761C}" mergeInterval="0" personalView="1" xWindow="492" windowWidth="948" windowHeight="860" activeSheetId="1"/>
+    <customWorkbookView name="Dmoos - Persönliche Ansicht" guid="{D178FE1B-3B10-414B-86B8-943130264B26}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
+    <customWorkbookView name="Urs Müller - Persönliche Ansicht" guid="{684E191D-B776-4614-A9A6-09F48EE40BD1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="978" activeSheetId="1"/>
+    <customWorkbookView name="Ernst Haas - Persönliche Ansicht" guid="{E9B280C6-F6C1-4D6E-A20C-7C4266B3269C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="923" activeSheetId="1"/>
+    <customWorkbookView name="Daniel Moos - Persönliche Ansicht" guid="{9D53A792-EE49-4CB1-A328-80A3B1745755}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1216" activeSheetId="1" showComments="commNone"/>
+    <customWorkbookView name="w10 Test - Persönliche Ansicht" guid="{F0C3F358-38F8-4A2B-A44F-0486E20EA4EB}" mergeInterval="0" personalView="1" xWindow="153" yWindow="43" windowWidth="1713" windowHeight="1088" activeSheetId="1"/>
     <customWorkbookView name="Reto Dettli - Persönliche Ansicht" guid="{EFCCBDBE-703D-49A8-BFD5-C70DFC4C6246}" mergeInterval="0" personalView="1" maximized="1" xWindow="182" yWindow="-1449" windowWidth="2578" windowHeight="1398" activeSheetId="1"/>
-    <customWorkbookView name="w10 Test - Persönliche Ansicht" guid="{F0C3F358-38F8-4A2B-A44F-0486E20EA4EB}" mergeInterval="0" personalView="1" xWindow="153" yWindow="43" windowWidth="1713" windowHeight="1088" activeSheetId="1"/>
-    <customWorkbookView name="Daniel Moos - Persönliche Ansicht" guid="{9D53A792-EE49-4CB1-A328-80A3B1745755}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1216" activeSheetId="1" showComments="commNone"/>
-    <customWorkbookView name="Ernst Haas - Persönliche Ansicht" guid="{E9B280C6-F6C1-4D6E-A20C-7C4266B3269C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="923" activeSheetId="1"/>
-    <customWorkbookView name="Urs Müller - Persönliche Ansicht" guid="{684E191D-B776-4614-A9A6-09F48EE40BD1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="978" activeSheetId="1"/>
-    <customWorkbookView name="Dmoos - Persönliche Ansicht" guid="{D178FE1B-3B10-414B-86B8-943130264B26}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Andrea Binkert - Persönliche Ansicht" guid="{2A6B7D3A-520D-4798-8230-1DC17916761C}" mergeInterval="0" personalView="1" xWindow="492" windowWidth="948" windowHeight="860" activeSheetId="1"/>
-    <customWorkbookView name="Basil Odermatt - Persönliche Ansicht" guid="{59C26AB4-86C6-4447-8F9F-F1FCBFE3A683}" mergeInterval="0" personalView="1" maximized="1" xWindow="2552" yWindow="-6" windowWidth="2576" windowHeight="1426" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -515,7 +515,7 @@
     <numFmt numFmtId="168" formatCode="#,##0&quot; CHF&quot;"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -796,12 +796,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="45">
@@ -4091,10 +4085,10 @@
   <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5255,6 +5249,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7c16c412-41a7-483e-8458-9b4c6e041c8c">
@@ -5263,15 +5266,6 @@
     <TaxCatchAll xmlns="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5480,6 +5474,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E4C368-1DF5-422B-BD39-8846CE2351EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A314DA-0F62-4E10-94F7-DBFCC9F3B707}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5492,14 +5494,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E4C368-1DF5-422B-BD39-8846CE2351EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/5204_energie_test.xlsx
+++ b/5204_energie_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\gitrepos\energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E98E633-4567-4C0F-9E77-2DD9CD7215B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C0B08A-175B-45A9-8C58-32D4FF9658EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="775" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,14 +35,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Reto Dettli - Persönliche Ansicht" guid="{EFCCBDBE-703D-49A8-BFD5-C70DFC4C6246}" mergeInterval="0" personalView="1" maximized="1" xWindow="182" yWindow="-1449" windowWidth="2578" windowHeight="1398" activeSheetId="1"/>
+    <customWorkbookView name="w10 Test - Persönliche Ansicht" guid="{F0C3F358-38F8-4A2B-A44F-0486E20EA4EB}" mergeInterval="0" personalView="1" xWindow="153" yWindow="43" windowWidth="1713" windowHeight="1088" activeSheetId="1"/>
+    <customWorkbookView name="Daniel Moos - Persönliche Ansicht" guid="{9D53A792-EE49-4CB1-A328-80A3B1745755}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1216" activeSheetId="1" showComments="commNone"/>
+    <customWorkbookView name="Ernst Haas - Persönliche Ansicht" guid="{E9B280C6-F6C1-4D6E-A20C-7C4266B3269C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="923" activeSheetId="1"/>
+    <customWorkbookView name="Urs Müller - Persönliche Ansicht" guid="{684E191D-B776-4614-A9A6-09F48EE40BD1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="978" activeSheetId="1"/>
+    <customWorkbookView name="Dmoos - Persönliche Ansicht" guid="{D178FE1B-3B10-414B-86B8-943130264B26}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
+    <customWorkbookView name="Andrea Binkert - Persönliche Ansicht" guid="{2A6B7D3A-520D-4798-8230-1DC17916761C}" mergeInterval="0" personalView="1" xWindow="492" windowWidth="948" windowHeight="860" activeSheetId="1"/>
     <customWorkbookView name="Basil Odermatt - Persönliche Ansicht" guid="{59C26AB4-86C6-4447-8F9F-F1FCBFE3A683}" mergeInterval="0" personalView="1" maximized="1" xWindow="2552" yWindow="-6" windowWidth="2576" windowHeight="1426" activeSheetId="1"/>
-    <customWorkbookView name="Andrea Binkert - Persönliche Ansicht" guid="{2A6B7D3A-520D-4798-8230-1DC17916761C}" mergeInterval="0" personalView="1" xWindow="492" windowWidth="948" windowHeight="860" activeSheetId="1"/>
-    <customWorkbookView name="Dmoos - Persönliche Ansicht" guid="{D178FE1B-3B10-414B-86B8-943130264B26}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="Urs Müller - Persönliche Ansicht" guid="{684E191D-B776-4614-A9A6-09F48EE40BD1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="978" activeSheetId="1"/>
-    <customWorkbookView name="Ernst Haas - Persönliche Ansicht" guid="{E9B280C6-F6C1-4D6E-A20C-7C4266B3269C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="923" activeSheetId="1"/>
-    <customWorkbookView name="Daniel Moos - Persönliche Ansicht" guid="{9D53A792-EE49-4CB1-A328-80A3B1745755}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1216" activeSheetId="1" showComments="commNone"/>
-    <customWorkbookView name="w10 Test - Persönliche Ansicht" guid="{F0C3F358-38F8-4A2B-A44F-0486E20EA4EB}" mergeInterval="0" personalView="1" xWindow="153" yWindow="43" windowWidth="1713" windowHeight="1088" activeSheetId="1"/>
-    <customWorkbookView name="Reto Dettli - Persönliche Ansicht" guid="{EFCCBDBE-703D-49A8-BFD5-C70DFC4C6246}" mergeInterval="0" personalView="1" maximized="1" xWindow="182" yWindow="-1449" windowWidth="2578" windowHeight="1398" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -485,22 +485,22 @@
     <t>px</t>
   </si>
   <si>
+    <t>Bevölkerungstyp</t>
+  </si>
+  <si>
+    <t>Ständige und nichtständige Wohnbevölkerung</t>
+  </si>
+  <si>
+    <t>Personen</t>
+  </si>
+  <si>
+    <t>Statistik der Bevölkerung und der Haushalte STATPOP (BFS)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>8100,ZH</t>
-  </si>
-  <si>
-    <t>Bevölkerungstyp</t>
-  </si>
-  <si>
-    <t>Ständige und nichtständige Wohnbevölkerung</t>
-  </si>
-  <si>
-    <t>Personen</t>
-  </si>
-  <si>
-    <t>Statistik der Bevölkerung und der Haushalte STATPOP (BFS)</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
 </sst>
 </file>
@@ -4088,7 +4088,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4376,13 +4376,13 @@
         <v>97</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="N4" s="25" t="s">
         <v>89</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P4" s="25">
         <v>1</v>
@@ -4394,19 +4394,19 @@
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
       <c r="U4" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="V4" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="X4" s="25" t="s">
         <v>117</v>
-      </c>
-      <c r="X4" s="25" t="s">
-        <v>118</v>
       </c>
       <c r="Y4" s="25" t="s">
         <v>91</v>
       </c>
       <c r="AA4" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="14.25" x14ac:dyDescent="0.2">
@@ -5249,26 +5249,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7c16c412-41a7-483e-8458-9b4c6e041c8c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004D6EF8296678614C82595E073A935E63" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a2c357ece3d19c143a9e4a1e033fa04b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7c16c412-41a7-483e-8458-9b4c6e041c8c" xmlns:ns3="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78066d3103febb3f607343910020d0d2" ns2:_="" ns3:_="">
     <xsd:import namespace="7c16c412-41a7-483e-8458-9b4c6e041c8c"/>
@@ -5473,10 +5453,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7c16c412-41a7-483e-8458-9b4c6e041c8c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E4C368-1DF5-422B-BD39-8846CE2351EE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02E89199-B92A-4346-AA14-A4573F72AE71}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7c16c412-41a7-483e-8458-9b4c6e041c8c"/>
+    <ds:schemaRef ds:uri="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5499,20 +5510,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02E89199-B92A-4346-AA14-A4573F72AE71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E4C368-1DF5-422B-BD39-8846CE2351EE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7c16c412-41a7-483e-8458-9b4c6e041c8c"/>
-    <ds:schemaRef ds:uri="9ff67bf8-4dc4-49ec-8a2f-3c58a02da8ea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
